--- a/branches/Richard/StructureDefinition-target-facility-encounter.xlsx
+++ b/branches/Richard/StructureDefinition-target-facility-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-07T07:18:49+00:00</t>
+    <t>2023-02-08T06:02:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-target-facility-encounter.xlsx
+++ b/branches/Richard/StructureDefinition-target-facility-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-08T06:02:36+00:00</t>
+    <t>2023-02-08T06:03:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-target-facility-encounter.xlsx
+++ b/branches/Richard/StructureDefinition-target-facility-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-08T06:03:05+00:00</t>
+    <t>2023-02-13T10:40:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -777,7 +777,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient)
+    <t xml:space="preserve">Reference(Patient|Group)
 </t>
   </si>
   <si>

--- a/branches/Richard/StructureDefinition-target-facility-encounter.xlsx
+++ b/branches/Richard/StructureDefinition-target-facility-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-13T10:40:45+00:00</t>
+    <t>2023-02-14T06:06:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-target-facility-encounter.xlsx
+++ b/branches/Richard/StructureDefinition-target-facility-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-14T06:06:47+00:00</t>
+    <t>2023-02-14T06:14:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -5264,10 +5264,10 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>80</v>

--- a/branches/Richard/StructureDefinition-target-facility-encounter.xlsx
+++ b/branches/Richard/StructureDefinition-target-facility-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-14T06:14:37+00:00</t>
+    <t>2023-02-14T06:14:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -5264,10 +5264,10 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>80</v>

--- a/branches/Richard/StructureDefinition-target-facility-encounter.xlsx
+++ b/branches/Richard/StructureDefinition-target-facility-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-14T06:14:44+00:00</t>
+    <t>2023-02-14T10:08:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -5264,7 +5264,7 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>79</v>

--- a/branches/Richard/StructureDefinition-target-facility-encounter.xlsx
+++ b/branches/Richard/StructureDefinition-target-facility-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-14T10:08:14+00:00</t>
+    <t>2023-02-14T11:00:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-target-facility-encounter.xlsx
+++ b/branches/Richard/StructureDefinition-target-facility-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-14T11:00:57+00:00</t>
+    <t>2023-02-14T11:01:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-target-facility-encounter.xlsx
+++ b/branches/Richard/StructureDefinition-target-facility-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-14T11:01:25+00:00</t>
+    <t>2023-02-16T14:12:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-target-facility-encounter.xlsx
+++ b/branches/Richard/StructureDefinition-target-facility-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T14:12:28+00:00</t>
+    <t>2023-02-17T05:42:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-target-facility-encounter.xlsx
+++ b/branches/Richard/StructureDefinition-target-facility-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T05:42:44+00:00</t>
+    <t>2023-02-17T06:29:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-target-facility-encounter.xlsx
+++ b/branches/Richard/StructureDefinition-target-facility-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T06:29:33+00:00</t>
+    <t>2023-02-17T06:55:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-target-facility-encounter.xlsx
+++ b/branches/Richard/StructureDefinition-target-facility-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T06:55:40+00:00</t>
+    <t>2023-02-17T08:02:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-target-facility-encounter.xlsx
+++ b/branches/Richard/StructureDefinition-target-facility-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T08:02:48+00:00</t>
+    <t>2023-02-17T08:03:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-target-facility-encounter.xlsx
+++ b/branches/Richard/StructureDefinition-target-facility-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T08:03:26+00:00</t>
+    <t>2023-02-18T08:11:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-target-facility-encounter.xlsx
+++ b/branches/Richard/StructureDefinition-target-facility-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T08:11:00+00:00</t>
+    <t>2023-02-18T08:11:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-target-facility-encounter.xlsx
+++ b/branches/Richard/StructureDefinition-target-facility-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T08:11:48+00:00</t>
+    <t>2023-02-18T08:36:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-target-facility-encounter.xlsx
+++ b/branches/Richard/StructureDefinition-target-facility-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T08:36:05+00:00</t>
+    <t>2023-02-18T10:10:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-target-facility-encounter.xlsx
+++ b/branches/Richard/StructureDefinition-target-facility-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T10:10:12+00:00</t>
+    <t>2023-02-18T10:12:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-target-facility-encounter.xlsx
+++ b/branches/Richard/StructureDefinition-target-facility-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T10:12:19+00:00</t>
+    <t>2023-02-18T10:18:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-target-facility-encounter.xlsx
+++ b/branches/Richard/StructureDefinition-target-facility-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T10:18:24+00:00</t>
+    <t>2023-02-18T11:11:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-target-facility-encounter.xlsx
+++ b/branches/Richard/StructureDefinition-target-facility-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T11:11:58+00:00</t>
+    <t>2023-02-18T11:12:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-target-facility-encounter.xlsx
+++ b/branches/Richard/StructureDefinition-target-facility-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T11:12:59+00:00</t>
+    <t>2023-02-18T11:19:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-target-facility-encounter.xlsx
+++ b/branches/Richard/StructureDefinition-target-facility-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T11:19:13+00:00</t>
+    <t>2023-02-18T14:34:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-target-facility-encounter.xlsx
+++ b/branches/Richard/StructureDefinition-target-facility-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T14:34:08+00:00</t>
+    <t>2023-02-18T15:11:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-target-facility-encounter.xlsx
+++ b/branches/Richard/StructureDefinition-target-facility-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T15:11:10+00:00</t>
+    <t>2023-02-18T15:16:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-target-facility-encounter.xlsx
+++ b/branches/Richard/StructureDefinition-target-facility-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T15:16:43+00:00</t>
+    <t>2023-02-20T07:17:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-target-facility-encounter.xlsx
+++ b/branches/Richard/StructureDefinition-target-facility-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-20T07:17:54+00:00</t>
+    <t>2023-02-20T07:28:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-target-facility-encounter.xlsx
+++ b/branches/Richard/StructureDefinition-target-facility-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-20T07:28:36+00:00</t>
+    <t>2023-02-20T07:46:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-target-facility-encounter.xlsx
+++ b/branches/Richard/StructureDefinition-target-facility-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-20T07:46:41+00:00</t>
+    <t>2023-02-20T07:47:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-target-facility-encounter.xlsx
+++ b/branches/Richard/StructureDefinition-target-facility-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-20T07:47:29+00:00</t>
+    <t>2023-02-20T08:02:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-target-facility-encounter.xlsx
+++ b/branches/Richard/StructureDefinition-target-facility-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-20T08:02:38+00:00</t>
+    <t>2023-02-20T08:12:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-target-facility-encounter.xlsx
+++ b/branches/Richard/StructureDefinition-target-facility-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-20T08:12:47+00:00</t>
+    <t>2023-02-20T09:50:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-target-facility-encounter.xlsx
+++ b/branches/Richard/StructureDefinition-target-facility-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-20T09:50:24+00:00</t>
+    <t>2023-02-20T09:50:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-target-facility-encounter.xlsx
+++ b/branches/Richard/StructureDefinition-target-facility-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-20T09:50:37+00:00</t>
+    <t>2023-02-27T06:00:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-target-facility-encounter.xlsx
+++ b/branches/Richard/StructureDefinition-target-facility-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T06:00:31+00:00</t>
+    <t>2023-02-27T06:07:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-target-facility-encounter.xlsx
+++ b/branches/Richard/StructureDefinition-target-facility-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T06:07:40+00:00</t>
+    <t>2023-02-27T06:39:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,7 +84,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>This profile represents the facility the patient is being transferred to</t>
+    <t>This profile represents the current facility at which the patient is receiving treatment.</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/branches/Richard/StructureDefinition-target-facility-encounter.xlsx
+++ b/branches/Richard/StructureDefinition-target-facility-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T06:39:33+00:00</t>
+    <t>2023-02-27T06:55:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-target-facility-encounter.xlsx
+++ b/branches/Richard/StructureDefinition-target-facility-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T06:55:00+00:00</t>
+    <t>2023-02-27T11:09:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-target-facility-encounter.xlsx
+++ b/branches/Richard/StructureDefinition-target-facility-encounter.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0-test</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T11:09:18+00:00</t>
+    <t>2023-02-27T12:02:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-target-facility-encounter.xlsx
+++ b/branches/Richard/StructureDefinition-target-facility-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T12:02:46+00:00</t>
+    <t>2023-02-27T12:36:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-target-facility-encounter.xlsx
+++ b/branches/Richard/StructureDefinition-target-facility-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T12:36:36+00:00</t>
+    <t>2023-02-27T13:37:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-target-facility-encounter.xlsx
+++ b/branches/Richard/StructureDefinition-target-facility-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T13:37:14+00:00</t>
+    <t>2023-02-27T13:39:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-target-facility-encounter.xlsx
+++ b/branches/Richard/StructureDefinition-target-facility-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T13:39:32+00:00</t>
+    <t>2023-02-28T10:46:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-target-facility-encounter.xlsx
+++ b/branches/Richard/StructureDefinition-target-facility-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-28T10:46:33+00:00</t>
+    <t>2023-02-28T10:52:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-target-facility-encounter.xlsx
+++ b/branches/Richard/StructureDefinition-target-facility-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-28T10:52:31+00:00</t>
+    <t>2023-03-01T07:12:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-target-facility-encounter.xlsx
+++ b/branches/Richard/StructureDefinition-target-facility-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-01T07:12:03+00:00</t>
+    <t>2023-03-01T07:12:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-target-facility-encounter.xlsx
+++ b/branches/Richard/StructureDefinition-target-facility-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-01T07:12:59+00:00</t>
+    <t>2023-03-01T07:50:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-target-facility-encounter.xlsx
+++ b/branches/Richard/StructureDefinition-target-facility-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-01T07:50:24+00:00</t>
+    <t>2023-03-01T07:55:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-target-facility-encounter.xlsx
+++ b/branches/Richard/StructureDefinition-target-facility-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-01T07:55:50+00:00</t>
+    <t>2023-03-01T08:26:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-target-facility-encounter.xlsx
+++ b/branches/Richard/StructureDefinition-target-facility-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-01T08:26:46+00:00</t>
+    <t>2023-03-02T06:00:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-target-facility-encounter.xlsx
+++ b/branches/Richard/StructureDefinition-target-facility-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T06:00:15+00:00</t>
+    <t>2023-03-02T06:01:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-target-facility-encounter.xlsx
+++ b/branches/Richard/StructureDefinition-target-facility-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T06:01:33+00:00</t>
+    <t>2023-03-02T06:25:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-target-facility-encounter.xlsx
+++ b/branches/Richard/StructureDefinition-target-facility-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T06:25:26+00:00</t>
+    <t>2023-03-02T06:25:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-target-facility-encounter.xlsx
+++ b/branches/Richard/StructureDefinition-target-facility-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T06:25:57+00:00</t>
+    <t>2023-03-03T14:40:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-target-facility-encounter.xlsx
+++ b/branches/Richard/StructureDefinition-target-facility-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T14:40:41+00:00</t>
+    <t>2023-03-03T14:42:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
